--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_fdb_test_ni_fdb_mac_aging_time_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_fdb_test_ni_fdb_mac_aging_time_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:03e80d0e-ad91-4f95-b8fd-dd13082b80ca"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:166c296e-ba23-4d61-934e-cc570c9e2cec"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
